--- a/notes/mqtt schema.xlsx
+++ b/notes/mqtt schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c87c21627f9c158/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\adam\src\minihass\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AB3AA53-664A-4F12-A4B0-86B70A11C1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511C9C35-C376-48FB-998D-DA64CF9735FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21150" yWindow="0" windowWidth="30555" windowHeight="20985" xr2:uid="{44D63D44-858F-4CEC-B14A-8F0ED25BC815}"/>
+    <workbookView xWindow="14565" yWindow="0" windowWidth="37140" windowHeight="20985" xr2:uid="{44D63D44-858F-4CEC-B14A-8F0ED25BC815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>binary_sensor</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>CONF_IMAGE_ENCODING</t>
+  </si>
+  <si>
+    <t>climate</t>
   </si>
 </sst>
 </file>
@@ -501,31 +504,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9120BF00-C90E-491F-A20A-67A6310C71FF}">
-  <dimension ref="B1:F32"/>
+  <dimension ref="B1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="41.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -536,33 +541,36 @@
         <v>34</v>
       </c>
       <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -570,7 +578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -578,44 +586,44 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
       <c r="F9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -625,69 +633,69 @@
       <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E23" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>29</v>
       </c>
@@ -695,40 +703,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
